--- a/xlsx/User-Theodoranian_intext.xlsx
+++ b/xlsx/User-Theodoranian_intext.xlsx
@@ -29,7 +29,7 @@
     <t>关于此页面的讨论[t]</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_User-Theodoranian</t>
+    <t>政策_政策_维基百科_User-Theodoranian</t>
   </si>
 </sst>
 </file>
